--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\eFinance\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFB91C-39F7-4100-A961-B7EDB1A13E4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E832A-BBAF-4B43-9B3C-261A8569C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -524,15 +524,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="113.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -581,7 +581,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1620,14 +1620,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1664,12 +1666,12 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
@@ -2732,12 +2734,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\eFinance\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E832A-BBAF-4B43-9B3C-261A8569C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B297EF-4C7C-40D3-96A7-1388B0697C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="444" windowWidth="22200" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -87,22 +87,7 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -137,6 +122,9 @@
   </si>
   <si>
     <t>Webpage. Opens a specific entry from the 'All Items' list. Needs to be appended with an ID number</t>
+  </si>
+  <si>
+    <t>eFinanceCommunicationApprovalProcess</t>
   </si>
 </sst>
 </file>
@@ -195,10 +183,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -521,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -569,52 +556,42 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:26" ht="28.8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1602,14 +1579,11 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{0CBB09DF-41D1-4243-95B0-32554F851625}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{1A0B967A-88F1-4633-B7AD-B3CEED0ADE20}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0CBB09DF-41D1-4243-95B0-32554F851625}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1A0B967A-88F1-4633-B7AD-B3CEED0ADE20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1673,8 +1647,8 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1698,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1720,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1731,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1742,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\eFinance\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B297EF-4C7C-40D3-96A7-1388B0697C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438E611-5D3B-454A-BFAD-4EF8FEDC6E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="444" windowWidth="22200" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>eFinanceCommunicationApprovalProcess</t>
+  </si>
+  <si>
+    <t>Download_Directory</t>
+  </si>
+  <si>
+    <t>\Output</t>
+  </si>
+  <si>
+    <t>Directory to where the attachments will be downloaded and processed</t>
   </si>
 </sst>
 </file>
@@ -511,15 +520,15 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="113.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -556,7 +565,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -589,7 +598,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1598,12 +1617,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1640,7 +1659,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2708,12 +2727,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438E611-5D3B-454A-BFAD-4EF8FEDC6E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E76628-8299-4F43-B7BB-AE25F2630784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Directory to where the attachments will be downloaded and processed</t>
+  </si>
+  <si>
+    <t>\Output\ProcessedData.xlsx</t>
+  </si>
+  <si>
+    <t>ProcessedData_File</t>
+  </si>
+  <si>
+    <t>Path and filename of excel file that will contain the list of processed data and its status.</t>
   </si>
 </sst>
 </file>
@@ -520,15 +529,15 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="113.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -565,7 +574,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -609,7 +618,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1617,12 +1636,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1659,7 +1678,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2727,12 +2746,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E76628-8299-4F43-B7BB-AE25F2630784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB9BB3-4B5F-4C2F-A0B9-4E4E24D2973C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +143,33 @@
   </si>
   <si>
     <t>Path and filename of excel file that will contain the list of processed data and its status.</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
+    <t>SupportedFileFormats</t>
+  </si>
+  <si>
+    <t>{".pdf",".jpg",".jpeg"}</t>
+  </si>
+  <si>
+    <t>List of all supported file formats for the GetAttachments.xaml workflow</t>
   </si>
 </sst>
 </file>
@@ -529,15 +556,15 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="113.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -574,7 +601,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -629,7 +656,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1633,15 +1670,15 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1678,7 +1715,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1758,9 +1795,39 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>30000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>120000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -2746,12 +2813,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnfe.NNITCORP\Documents\UiPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB9BB3-4B5F-4C2F-A0B9-4E4E24D2973C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D34496-16ED-4FAE-9263-C687998D4648}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <t>SupportedFileFormats</t>
   </si>
   <si>
-    <t>{".pdf",".jpg",".jpeg"}</t>
-  </si>
-  <si>
     <t>List of all supported file formats for the GetAttachments.xaml workflow</t>
+  </si>
+  <si>
+    <t>{".pdf",".jpg",".jpeg",".png"}</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -661,10 +661,10 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438E611-5D3B-454A-BFAD-4EF8FEDC6E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -134,12 +133,18 @@
   </si>
   <si>
     <t>Directory to where the attachments will be downloaded and processed</t>
+  </si>
+  <si>
+    <t>Cutoff</t>
+  </si>
+  <si>
+    <t>Cut off limit of records to be processed. Only records before the set cutoff should be processed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -151,6 +156,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -169,6 +175,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +209,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -609,7 +617,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1601,8 +1616,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{0CBB09DF-41D1-4243-95B0-32554F851625}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{1A0B967A-88F1-4633-B7AD-B3CEED0ADE20}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1610,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2722,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -528,14 +528,14 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnfe.NNITCORP\Documents\UiPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath2\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D34496-16ED-4FAE-9263-C687998D4648}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -170,12 +169,18 @@
   </si>
   <si>
     <t>{".pdf",".jpg",".jpeg",".png"}</t>
+  </si>
+  <si>
+    <t>CutOff</t>
+  </si>
+  <si>
+    <t>This is where the cutoff date is set, only those submitted reimbursement on or before the set cutoff will be processed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -187,6 +192,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -205,6 +211,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,6 +245,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -667,7 +675,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1657,8 +1672,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{0CBB09DF-41D1-4243-95B0-32554F851625}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{1A0B967A-88F1-4633-B7AD-B3CEED0ADE20}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1666,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2808,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath2\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,6 +246,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,6 +679,9 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44028</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>50</v>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90786EDE-3C63-4907-8CD7-71107CDEB20F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -561,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1676,8 +1677,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1685,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90786EDE-3C63-4907-8CD7-71107CDEB20F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD67CBE-C7D5-4FA9-B237-D059ED493D3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,13 +169,13 @@
     <t>List of all supported file formats for the GetAttachments.xaml workflow</t>
   </si>
   <si>
-    <t>{".pdf",".jpg",".jpeg",".png"}</t>
-  </si>
-  <si>
     <t>CutOff</t>
   </si>
   <si>
     <t>This is where the cutoff date is set, only those submitted reimbursement on or before the set cutoff will be processed</t>
+  </si>
+  <si>
+    <t>.pdf, .jpg, .jpeg, .png</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6">
         <v>44028</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD67CBE-C7D5-4FA9-B237-D059ED493D3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A723D0C-2984-4DE8-B2D9-C952622F2F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>Download_Directory</t>
   </si>
   <si>
-    <t>\Output</t>
-  </si>
-  <si>
     <t>Directory to where the attachments will be downloaded and processed</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>.pdf, .jpg, .jpeg, .png</t>
+  </si>
+  <si>
+    <t>\Downloads</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -649,43 +649,43 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6">
         <v>44028</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1817,35 +1817,35 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>5000</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>30000</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>120000</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A723D0C-2984-4DE8-B2D9-C952622F2F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F206E-F66A-4B7D-8593-B63335A1C718}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Directory to where the attachments will be downloaded and processed</t>
   </si>
   <si>
-    <t>\Output\ProcessedData.xlsx</t>
-  </si>
-  <si>
     <t>ProcessedData_File</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>\Downloads</t>
+  </si>
+  <si>
+    <t>Output\ProcessedData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -649,7 +649,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -657,35 +657,35 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6">
         <v>44028</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1817,35 +1817,35 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>5000</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>30000</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>120000</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath_Integrated\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F206E-F66A-4B7D-8593-B63335A1C718}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC16DE-8B46-4114-B12E-267FC18B6A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -109,15 +109,9 @@
     <t>CommAllItems</t>
   </si>
   <si>
-    <t>http://workit.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/AllItems.aspx</t>
-  </si>
-  <si>
     <t>Comm_EntryPage</t>
   </si>
   <si>
-    <t>http://workit.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/DispForm.aspx?ID=</t>
-  </si>
-  <si>
     <t>Webpage. Contains all the communication reimbursements filed by every employee</t>
   </si>
   <si>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t>Output\ProcessedData.xlsx</t>
+  </si>
+  <si>
+    <t>http://workitpreprod.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/2019.aspx</t>
+  </si>
+  <si>
+    <t>http://workitpreprod.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/DispForm.aspx?ID=</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -627,65 +627,65 @@
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6">
         <v>44028</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1817,35 +1817,35 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>5000</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>30000</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>120000</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath_Appid\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F0DD3-5318-4ACD-A9DF-97654A55129A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3885" yWindow="4140" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -123,9 +124,6 @@
     <t>Download_Directory</t>
   </si>
   <si>
-    <t>\Output</t>
-  </si>
-  <si>
     <t>Directory to where the attachments will be downloaded and processed</t>
   </si>
   <si>
@@ -163,12 +161,6 @@
   </si>
   <si>
     <t>{".pdf",".jpg",".jpeg",".png"}</t>
-  </si>
-  <si>
-    <t>http://workitpreprod.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/2020.aspx</t>
-  </si>
-  <si>
-    <t>http://workitpreprod.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/DispForm.aspx?ID=</t>
   </si>
   <si>
     <t>CutOff</t>
@@ -179,12 +171,21 @@
   <si>
     <t xml:space="preserve">This is where the cutoff date is set, only those submitted reimbursement on or before the set cutoff will be processed
 </t>
+  </si>
+  <si>
+    <t>http://workit.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/AllItems.aspx</t>
+  </si>
+  <si>
+    <t>http://workit.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/DispForm.aspx?ID=</t>
+  </si>
+  <si>
+    <t>\Downloads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -564,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -629,7 +630,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -640,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -651,43 +652,43 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1678,20 +1679,16 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1819,35 +1816,35 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>5000</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>30000</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>120000</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2830,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/eFinance_Process/Data/Config.xlsx
+++ b/eFinance_Process/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVV\Downloads\Plans\UIPath\eFinancePH_UIPath\eFinance_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdjc\Documents\UiPath\POC\eFinancePH_UIPath\eFinance_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F0DD3-5318-4ACD-A9DF-97654A55129A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE689E38-CAED-4428-A78B-1DB01317B193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4140" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -173,13 +173,13 @@
 </t>
   </si>
   <si>
-    <t>http://workit.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/AllItems.aspx</t>
-  </si>
-  <si>
-    <t>http://workit.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/DispForm.aspx?ID=</t>
-  </si>
-  <si>
     <t>\Downloads</t>
+  </si>
+  <si>
+    <t>http://workitpreprod.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/2020.aspx</t>
+  </si>
+  <si>
+    <t>http://workitpreprod.nnitcorp.com/Departments/399-1000/Corporate/Finance/e-Finance/Lists/Communication/DispForm.aspx?ID=</t>
   </si>
 </sst>
 </file>
@@ -568,16 +568,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="113.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -614,7 +614,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -630,7 +630,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -641,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -652,7 +652,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -1679,8 +1679,12 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D4BA7E4A-C49B-4CFB-BB4C-B5FD86960AD2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{55B81F0D-7154-4866-ABE8-6E12E9A14DE0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1688,16 +1692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1734,7 +1738,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2832,12 +2836,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
